--- a/02-Avancado1-Funcoes/04-FuncoesDataHora/Aula-19-ExcelAvancado1-ControleDeEstoque-FuncoesData.xlsx
+++ b/02-Avancado1-Funcoes/04-FuncoesDataHora/Aula-19-ExcelAvancado1-ControleDeEstoque-FuncoesData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\msexcel\02-Avancado1-Funcoes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\msexcel\02-Avancado1-Funcoes\04-FuncoesDataHora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5FE61B-3A73-4F1E-A5CA-4284EDABEECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DD8591-FABA-4212-803F-01CD14CC76AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle de Estoque" sheetId="1" r:id="rId1"/>
@@ -46,6 +46,7 @@
     <author>tc={78FBACA2-2C47-4C4B-AD5C-5D0722660332}</author>
     <author>tc={48CB137E-6BD9-47A0-BABB-C4A541CEDA99}</author>
     <author>tc={4B604F93-C13C-4694-87C1-087CB16A6379}</author>
+    <author>tc={5BCB078C-7F5F-4DB6-8B08-AD4924B53738}</author>
     <author>tc={E4B99641-BF8A-40E3-B7B8-88559AC9F11D}</author>
     <author>tc={E8600372-A9FB-4564-BFD4-091B106C5398}</author>
     <author>tc={B42DCE5A-4CEE-4868-AC5E-E51AB2C8FD3C}</author>
@@ -113,7 +114,7 @@
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
-    Formatar a célula com formatado: mmmm</t>
+    Formatar a célula com a máscara: mmmm</t>
       </text>
     </comment>
     <comment ref="B21" authorId="8" shapeId="0" xr:uid="{4B604F93-C13C-4694-87C1-087CB16A6379}">
@@ -124,7 +125,15 @@
     Utilizar a função =DIATRABALHO.INTL()</t>
       </text>
     </comment>
-    <comment ref="D21" authorId="9" shapeId="0" xr:uid="{E4B99641-BF8A-40E3-B7B8-88559AC9F11D}">
+    <comment ref="C21" authorId="9" shapeId="0" xr:uid="{5BCB078C-7F5F-4DB6-8B08-AD4924B53738}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Formatar a célula com a máscara: dddd</t>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="10" shapeId="0" xr:uid="{E4B99641-BF8A-40E3-B7B8-88559AC9F11D}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -132,7 +141,7 @@
     No estoque do próximo dia, trabalhar com interligação de células com o estoque final do dia anterior.</t>
       </text>
     </comment>
-    <comment ref="G21" authorId="10" shapeId="0" xr:uid="{E8600372-A9FB-4564-BFD4-091B106C5398}">
+    <comment ref="G21" authorId="11" shapeId="0" xr:uid="{E8600372-A9FB-4564-BFD4-091B106C5398}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -140,7 +149,7 @@
     Utilizar a Função =SOMA()</t>
       </text>
     </comment>
-    <comment ref="B22" authorId="11" shapeId="0" xr:uid="{B42DCE5A-4CEE-4868-AC5E-E51AB2C8FD3C}">
+    <comment ref="B22" authorId="12" shapeId="0" xr:uid="{B42DCE5A-4CEE-4868-AC5E-E51AB2C8FD3C}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -148,7 +157,7 @@
     Nesse célula vamos trabalhar com a função =DIATRABALHO.INTL() mais subtraindo 1 dia referente ao dia 01/01/2025 que é o Feriado Universal</t>
       </text>
     </comment>
-    <comment ref="B23" authorId="12" shapeId="0" xr:uid="{109BFFE8-DDD3-4E0C-838C-7C956BB467E2}">
+    <comment ref="B23" authorId="13" shapeId="0" xr:uid="{109BFFE8-DDD3-4E0C-838C-7C956BB467E2}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -171,7 +180,7 @@
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
-    Formatar a célula com formatado: dddd</t>
+    Formatar a célula com a máscara: dddd</t>
       </text>
     </comment>
   </commentList>
@@ -419,7 +428,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,6 +527,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -666,6 +681,9 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -679,9 +697,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1277,10 +1292,13 @@
     <text>Digitar a Data Inicial do Mês</text>
   </threadedComment>
   <threadedComment ref="C16" dT="2025-01-13T23:05:30.91" personId="{3C9420C8-71ED-4DA2-81C6-15057B0C57B1}" id="{48CB137E-6BD9-47A0-BABB-C4A541CEDA99}">
-    <text>Formatar a célula com formatado: mmmm</text>
+    <text>Formatar a célula com a máscara: mmmm</text>
   </threadedComment>
   <threadedComment ref="B21" dT="2025-01-13T23:08:26.32" personId="{3C9420C8-71ED-4DA2-81C6-15057B0C57B1}" id="{4B604F93-C13C-4694-87C1-087CB16A6379}">
     <text>Utilizar a função =DIATRABALHO.INTL()</text>
+  </threadedComment>
+  <threadedComment ref="C21" dT="2025-02-05T18:22:28.73" personId="{3C9420C8-71ED-4DA2-81C6-15057B0C57B1}" id="{5BCB078C-7F5F-4DB6-8B08-AD4924B53738}">
+    <text>Formatar a célula com a máscara: dddd</text>
   </threadedComment>
   <threadedComment ref="D21" dT="2025-01-13T23:08:03.37" personId="{3C9420C8-71ED-4DA2-81C6-15057B0C57B1}" id="{E4B99641-BF8A-40E3-B7B8-88559AC9F11D}">
     <text>No estoque do próximo dia, trabalhar com interligação de células com o estoque final do dia anterior.</text>
@@ -1300,7 +1318,7 @@
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="B1" dT="2025-01-13T23:11:53.76" personId="{3C9420C8-71ED-4DA2-81C6-15057B0C57B1}" id="{0157D4F6-4787-4139-8CB8-DBB52F475284}">
-    <text>Formatar a célula com formatado: dddd</text>
+    <text>Formatar a célula com a máscara: dddd</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1311,56 +1329,56 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="7" width="15.7109375" customWidth="1"/>
+    <col min="2" max="7" width="15.6640625" customWidth="1"/>
     <col min="8" max="15" width="9" customWidth="1"/>
     <col min="16" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" s="21" customFormat="1"/>
     <row r="2" spans="2:7" s="21" customFormat="1" ht="15" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="2:7" s="21" customFormat="1" ht="15" customHeight="1">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="2:7" s="21" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="2:7" s="21" customFormat="1" ht="15" customHeight="1">
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="2:7" s="21" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="22"/>
@@ -1370,118 +1388,118 @@
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="2:7" ht="18.75">
-      <c r="B8" s="25" t="s">
+    <row r="8" spans="2:7" ht="18">
+      <c r="B8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="2:7" ht="18.75">
-      <c r="B9" s="25" t="s">
+    <row r="9" spans="2:7" ht="18">
+      <c r="B9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="2:7" ht="18.75">
-      <c r="B10" s="25" t="s">
+    <row r="10" spans="2:7" ht="18">
+      <c r="B10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="2:7" ht="18.75">
-      <c r="B11" s="25" t="s">
+    <row r="11" spans="2:7" ht="18">
+      <c r="B11" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="2:7" ht="18.75">
-      <c r="B12" s="25" t="s">
+    <row r="12" spans="2:7" ht="18">
+      <c r="B12" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="2:7" ht="18.75">
-      <c r="B13" s="25" t="s">
+    <row r="13" spans="2:7" ht="18">
+      <c r="B13" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="17"/>
     </row>
     <row r="14" spans="2:7"/>
-    <row r="15" spans="2:7" ht="26.25">
-      <c r="B15" s="26" t="s">
+    <row r="15" spans="2:7" ht="25.8">
+      <c r="B15" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-    </row>
-    <row r="16" spans="2:7" ht="18.75">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="2:7" ht="18">
       <c r="B16" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="12"/>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
     </row>
-    <row r="21" spans="2:7" ht="37.5">
+    <row r="21" spans="2:7" ht="36">
       <c r="B21" s="24" t="s">
         <v>9</v>
       </c>
@@ -1777,12 +1795,12 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
   <cols>
     <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="9" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
@@ -2106,24 +2124,24 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.8" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3"/>
-    <row r="2" spans="2:3" ht="20.25">
+    <row r="2" spans="2:3" ht="21">
       <c r="B2" s="31" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="32"/>
     </row>
-    <row r="3" spans="2:3" ht="15">
+    <row r="3" spans="2:3">
       <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
